--- a/data/trans_orig/iP30KDA1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA1_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4509713A-6373-4114-9D3E-9D125070889D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EE270D-15C5-4203-A59C-49129C89698D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{34EABCEE-BBEC-4B1D-9EF9-352A22DD2E2B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C8158CAF-21C0-4935-83BA-C7E981EF1374}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si toman una fruta o un zumo natural todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,325 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -798,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF0246-CC20-4806-B5C6-C5B2567BB58A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15DB5CC0-213B-46EC-A8CB-438F50B7693F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -916,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7">
-        <v>11397</v>
+        <v>108267</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -931,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="I4" s="7">
-        <v>15374</v>
+        <v>121698</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -943,73 +907,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>330</v>
       </c>
       <c r="N4" s="7">
-        <v>26770</v>
+        <v>229966</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>5984</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>625</v>
+        <v>15117</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
         <v>22</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
       <c r="N5" s="7">
-        <v>625</v>
+        <v>21100</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1018,153 +982,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="D7" s="7">
-        <v>101305</v>
+        <v>176157</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="I7" s="7">
-        <v>96278</v>
+        <v>230670</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>288</v>
+        <v>559</v>
       </c>
       <c r="N7" s="7">
-        <v>197584</v>
+        <v>406827</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>11143</v>
+        <v>9957</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7">
-        <v>5357</v>
+        <v>16850</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N8" s="7">
-        <v>16499</v>
+        <v>26807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1173,153 +1137,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>304</v>
+        <v>191</v>
       </c>
       <c r="D10" s="7">
-        <v>226672</v>
+        <v>166861</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>255</v>
+        <v>187</v>
       </c>
       <c r="I10" s="7">
-        <v>178025</v>
+        <v>157397</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>559</v>
+        <v>378</v>
       </c>
       <c r="N10" s="7">
-        <v>404697</v>
+        <v>324258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D11" s="7">
-        <v>16241</v>
+        <v>21388</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>9892</v>
+        <v>25692</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>26133</v>
+        <v>47081</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,153 +1292,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7">
-        <v>146595</v>
+        <v>144563</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I13" s="7">
-        <v>144691</v>
+        <v>157560</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="N13" s="7">
-        <v>291286</v>
+        <v>302123</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>24524</v>
+        <v>19956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>21877</v>
+        <v>19749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="N14" s="7">
-        <v>46401</v>
+        <v>39705</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1483,153 +1447,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>210</v>
+        <v>831</v>
       </c>
       <c r="D16" s="7">
-        <v>152523</v>
+        <v>595849</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>207</v>
+        <v>853</v>
       </c>
       <c r="I16" s="7">
-        <v>148375</v>
+        <v>667324</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
-        <v>417</v>
+        <v>1684</v>
       </c>
       <c r="N16" s="7">
-        <v>300899</v>
+        <v>1263174</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="D17" s="7">
-        <v>18933</v>
+        <v>57285</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I17" s="7">
-        <v>20115</v>
+        <v>77409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="N17" s="7">
-        <v>39048</v>
+        <v>134693</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1638,217 +1602,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>853</v>
-      </c>
-      <c r="D19" s="7">
-        <v>638492</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="7">
-        <v>831</v>
-      </c>
-      <c r="I19" s="7">
-        <v>582744</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1684</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1221236</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>87</v>
-      </c>
-      <c r="D20" s="7">
-        <v>70841</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="7">
-        <v>84</v>
-      </c>
-      <c r="I20" s="7">
-        <v>57865</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M20" s="7">
-        <v>171</v>
-      </c>
-      <c r="N20" s="7">
-        <v>128706</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
